--- a/App/data/MDEQ_WDEQ_Sufficiency.xlsx
+++ b/App/data/MDEQ_WDEQ_Sufficiency.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Work\TT_Backup2\WY_Tool\App_V2\data\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F762699-2CD3-4177-BE6C-94A81DE1F2CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D7B837-8198-4EB8-B4F7-049ADCD7A7D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template_DataSufficiency_Crossw" sheetId="1" r:id="rId1"/>
+    <sheet name="Overwhelming_Evidence" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Template_DataSufficiency_Crossw!$A$1:$N$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Template_DataSufficiency_Crossw!$A$1:$M$64</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,26 +39,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={29608ED0-4379-4F8D-9473-98CC74215F2F}</author>
-  </authors>
-  <commentList>
-    <comment ref="K57" authorId="0" shapeId="0" xr:uid="{29608ED0-4379-4F8D-9473-98CC74215F2F}">
-      <text>
-        <t xml:space="preserve">[對話串註解]
-您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
-註解:
-    At least 2 years are needed for delisting. </t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="122">
   <si>
     <t>State</t>
   </si>
@@ -314,119 +297,135 @@
     <t xml:space="preserve">Cylindrospermopsin </t>
   </si>
   <si>
+    <t>Anatoxin-a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chlorophyll a </t>
+  </si>
+  <si>
+    <t>CHLOROPHYLL A</t>
+  </si>
+  <si>
+    <t>Fish (Lakes)</t>
+  </si>
+  <si>
+    <t>Primary Recreation (Lakes)</t>
+  </si>
+  <si>
+    <t>Strontium</t>
+  </si>
+  <si>
+    <t>STRONTIUM</t>
+  </si>
+  <si>
+    <t>Ideally, 33% of the data set should be from samples collected during high flow conditions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thallium </t>
+  </si>
+  <si>
+    <t>THALLIUM</t>
+  </si>
+  <si>
+    <t>Uranium</t>
+  </si>
+  <si>
+    <t>URANIUM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mercury </t>
+  </si>
+  <si>
+    <t>MERCURY</t>
+  </si>
+  <si>
+    <t>Nickel</t>
+  </si>
+  <si>
+    <t>NICKEL</t>
+  </si>
+  <si>
+    <t>Barium</t>
+  </si>
+  <si>
+    <t>BARIUM</t>
+  </si>
+  <si>
+    <t>Beryllium</t>
+  </si>
+  <si>
+    <t>BERYLLIUM</t>
+  </si>
+  <si>
+    <t>To list</t>
+  </si>
+  <si>
+    <t>5 samples collected over the span of a single year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 samples collected over the span of a single recreation season (April 1 - October 31) </t>
+  </si>
+  <si>
+    <t>More rigorous data collection may be unnecessary if there are already a minimum of three exceedances of acute aquatic life standards in data sets of three to seven samples.</t>
+  </si>
+  <si>
+    <t>In many cases, a sample size of at least 11 samples is necessary, especially if point sources are present or for a delisting.</t>
+  </si>
+  <si>
+    <t>Acute</t>
+  </si>
+  <si>
+    <t>E. coli Assessment Method for State Surface Waters, Overwhelming Evidence</t>
+  </si>
+  <si>
+    <t>5 samples collected during separate 24-hour periods within one 30-day period</t>
+  </si>
+  <si>
+    <t>E. coli Assessment Method for State Surface Waters, Preferred</t>
+  </si>
+  <si>
+    <t>Aquatic Life</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MagUnits</t>
+  </si>
+  <si>
+    <t>UG/L</t>
+  </si>
+  <si>
+    <t>MG/L</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPN/100ML</t>
+  </si>
+  <si>
+    <t>METERS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>UG/L</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG/L</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>CYLINDROSPERMOPSIN</t>
-  </si>
-  <si>
-    <t>Anatoxin-a</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>ANATOXIN-A</t>
-  </si>
-  <si>
-    <t>Cyanobacterial Cell Count</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
-    <t>Documented, visible, pervasive cyanobacteria bloom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chlorophyll a </t>
-  </si>
-  <si>
-    <t>CHLOROPHYLL A</t>
-  </si>
-  <si>
-    <t>Fish (Lakes)</t>
-  </si>
-  <si>
-    <t>Primary Recreation (Lakes)</t>
-  </si>
-  <si>
-    <t>Strontium</t>
-  </si>
-  <si>
-    <t>STRONTIUM</t>
-  </si>
-  <si>
-    <t>Drinking Water</t>
-  </si>
-  <si>
-    <t>Ideally, 33% of the data set should be from samples collected during high flow conditions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thallium </t>
-  </si>
-  <si>
-    <t>THALLIUM</t>
-  </si>
-  <si>
-    <t>Uranium</t>
-  </si>
-  <si>
-    <t>URANIUM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mercury </t>
-  </si>
-  <si>
-    <t>MERCURY</t>
-  </si>
-  <si>
-    <t>Nickel</t>
-  </si>
-  <si>
-    <t>NICKEL</t>
-  </si>
-  <si>
-    <t>Barium</t>
-  </si>
-  <si>
-    <t>BARIUM</t>
-  </si>
-  <si>
-    <t>Beryllium</t>
-  </si>
-  <si>
-    <t>BERYLLIUM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To delist a currently listed site. </t>
-  </si>
-  <si>
-    <t>To list</t>
-  </si>
-  <si>
-    <t>5 samples collected over the span of a single year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 samples collected over the span of a single recreation season (April 1 - October 31) </t>
-  </si>
-  <si>
-    <t>More rigorous data collection may be unnecessary if there are already a minimum of three exceedances of acute aquatic life standards in data sets of three to seven samples.</t>
-  </si>
-  <si>
-    <t>In many cases, a sample size of at least 11 samples is necessary, especially if point sources are present or for a delisting.</t>
-  </si>
-  <si>
-    <t>Acute</t>
-  </si>
-  <si>
-    <t>Chronic</t>
-  </si>
-  <si>
-    <t>E. coli Assessment Method for State Surface Waters, Overwhelming Evidence</t>
-  </si>
-  <si>
-    <t>CYANOBACTERIA, VISUAL OBSERVATION</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -584,8 +583,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -777,6 +783,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -938,7 +950,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -946,6 +958,12 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - 輔色1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1002,12 +1020,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Ebert, Abbie" id="{C466DAD2-0E20-4B1C-A044-257A20D6F0B9}" userId="S::CBA197@mt.gov::0a07f5f4-860f-40cc-b18e-69e1c662971f" providerId="AD"/>
-</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1325,24 +1337,15 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="K57" dT="2024-07-02T20:25:28.08" personId="{C466DAD2-0E20-4B1C-A044-257A20D6F0B9}" id="{29608ED0-4379-4F8D-9473-98CC74215F2F}">
-    <text xml:space="preserve">At least 2 years are needed for delisting. </text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:N83"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="E55" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="2" width="9.140625" style="4"/>
     <col min="3" max="3" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
@@ -1350,17 +1353,17 @@
     <col min="5" max="5" width="51.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="44.28515625" style="4" customWidth="1"/>
     <col min="7" max="7" width="35.85546875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="25.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.5703125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="23.28515625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="23.0703125" customWidth="1"/>
+    <col min="9" max="9" width="25.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.5703125" style="4" customWidth="1"/>
     <col min="11" max="11" width="34" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="21.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="59.5703125" style="4" customWidth="1"/>
-    <col min="14" max="14" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="88.28515625" style="4" customWidth="1"/>
+    <col min="14" max="14" width="18.85546875" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1382,14 +1385,14 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>77</v>
@@ -1404,7 +1407,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -1426,14 +1429,14 @@
       <c r="G2" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="J2" s="4">
-        <v>0</v>
       </c>
       <c r="K2" s="4">
         <v>2</v>
@@ -1442,13 +1445,13 @@
         <v>12</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -1470,29 +1473,29 @@
       <c r="G3" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="J3" s="4">
-        <v>0</v>
+      <c r="J3" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="K3" s="4">
         <v>2</v>
       </c>
       <c r="L3" s="4">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
@@ -1514,14 +1517,14 @@
       <c r="G4" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>21</v>
+      <c r="H4" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="J4" s="4">
-        <v>0</v>
+        <v>81</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="K4" s="4">
         <v>2</v>
@@ -1530,13 +1533,13 @@
         <v>8</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="N4" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -1550,37 +1553,37 @@
         <v>13</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="J5" s="4">
-        <v>0</v>
+      <c r="J5" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="K5" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5" s="4">
         <v>12</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
@@ -1602,29 +1605,29 @@
       <c r="G6" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>81</v>
+      <c r="H6" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="J6" s="4">
-        <v>0</v>
+        <v>75</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="K6" s="4">
         <v>2</v>
       </c>
       <c r="L6" s="4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>110</v>
+        <v>17</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
@@ -1638,37 +1641,37 @@
         <v>13</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>81</v>
+      <c r="H7" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="J7" s="4">
-        <v>0</v>
+        <v>75</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="K7" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7" s="4">
         <v>12</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
@@ -1685,34 +1688,34 @@
         <v>16</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="J8" s="4">
-        <v>0</v>
+      <c r="J8" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="K8" s="4">
         <v>2</v>
       </c>
       <c r="L8" s="4">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
@@ -1734,117 +1737,111 @@
       <c r="G9" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>21</v>
+      <c r="H9" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="J9" s="4">
-        <v>0</v>
+        <v>81</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="K9" s="4">
         <v>2</v>
       </c>
       <c r="L9" s="4">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I10" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="6" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5">
+        <v>1</v>
+      </c>
+      <c r="L10" s="5">
+        <v>5</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="7" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J11" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J10" s="4">
-        <v>0</v>
-      </c>
-      <c r="K10" s="4">
-        <v>2</v>
-      </c>
-      <c r="L10" s="4">
-        <v>12</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="J11" s="4">
-        <v>0</v>
-      </c>
-      <c r="K11" s="4">
-        <v>2</v>
-      </c>
-      <c r="L11" s="4">
-        <v>12</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="K11" s="5">
+        <v>1</v>
+      </c>
+      <c r="L11" s="5">
+        <v>5</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
@@ -1855,25 +1852,19 @@
         <v>12</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="H12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="I12" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="J12" s="4">
-        <v>0</v>
       </c>
       <c r="K12" s="4">
         <v>2</v>
@@ -1882,13 +1873,13 @@
         <v>8</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="N12" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>10</v>
       </c>
@@ -1899,40 +1890,34 @@
         <v>12</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>117</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="J13" s="4">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="K13" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13" s="4">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="N13" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>10</v>
       </c>
@@ -1943,40 +1928,37 @@
         <v>12</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>81</v>
+        <v>67</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="J14" s="4">
+        <v>21</v>
+      </c>
+      <c r="K14" s="4">
         <v>0</v>
       </c>
-      <c r="K14" s="4">
-        <v>2</v>
-      </c>
       <c r="L14" s="4">
         <v>8</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>10</v>
       </c>
@@ -1987,122 +1969,119 @@
         <v>12</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>81</v>
+        <v>67</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="J15" s="4">
+        <v>74</v>
+      </c>
+      <c r="K15" s="4">
         <v>0</v>
       </c>
-      <c r="K15" s="4">
-        <v>3</v>
-      </c>
       <c r="L15" s="4">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I16" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5">
+      <c r="K16" s="4">
         <v>1</v>
       </c>
-      <c r="K16" s="5">
+      <c r="L16" s="4">
+        <v>8</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="K17" s="4">
         <v>1</v>
       </c>
-      <c r="L16" s="5">
-        <v>5</v>
-      </c>
-      <c r="M16" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="N16" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="J17" s="5">
-        <v>1</v>
-      </c>
-      <c r="K17" s="5">
-        <v>1</v>
-      </c>
-      <c r="L17" s="5">
-        <v>5</v>
-      </c>
-      <c r="M17" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="N17" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L17" s="4">
+        <v>8</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
@@ -2113,34 +2092,37 @@
         <v>12</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I18" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J18" s="4">
+      <c r="K18" s="4">
         <v>0</v>
       </c>
-      <c r="K18" s="4">
-        <v>2</v>
-      </c>
       <c r="L18" s="4">
         <v>8</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>10</v>
       </c>
@@ -2151,118 +2133,119 @@
         <v>12</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0</v>
+      </c>
+      <c r="L19" s="4">
+        <v>8</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I20" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I19" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="J19" s="4">
+      <c r="K20" s="4">
         <v>0</v>
       </c>
-      <c r="K19" s="4">
-        <v>3</v>
-      </c>
-      <c r="L19" s="4">
-        <v>12</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="N19" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H20" s="4" t="s">
+      <c r="L20" s="4">
+        <v>8</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I21" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="J20" s="4">
+      <c r="K21" s="4">
         <v>0</v>
       </c>
-      <c r="K20" s="4">
-        <v>2</v>
-      </c>
-      <c r="L20" s="4">
-        <v>8</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="N20" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="J21" s="4">
-        <v>0</v>
-      </c>
-      <c r="K21" s="4">
-        <v>3</v>
-      </c>
       <c r="L21" s="4">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>10</v>
       </c>
@@ -2276,19 +2259,19 @@
         <v>26</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="H22" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I22" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="J22" s="4">
-        <v>1</v>
       </c>
       <c r="K22" s="4">
         <v>0</v>
@@ -2297,13 +2280,13 @@
         <v>8</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="N22" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>10</v>
       </c>
@@ -2317,19 +2300,19 @@
         <v>26</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="H23" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I23" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="J23" s="4">
-        <v>1</v>
       </c>
       <c r="K23" s="4">
         <v>0</v>
@@ -2338,13 +2321,13 @@
         <v>8</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="N23" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>10</v>
       </c>
@@ -2358,34 +2341,34 @@
         <v>26</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>105</v>
+        <v>36</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="H24" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="J24" s="4">
+      <c r="H24" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" s="4">
         <v>0</v>
       </c>
-      <c r="K24" s="4">
-        <v>1</v>
-      </c>
       <c r="L24" s="4">
         <v>8</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="N24" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>10</v>
       </c>
@@ -2399,34 +2382,34 @@
         <v>26</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>107</v>
+        <v>36</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="H25" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="J25" s="4">
+      <c r="H25" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="K25" s="4">
         <v>0</v>
       </c>
-      <c r="K25" s="4">
-        <v>1</v>
-      </c>
       <c r="L25" s="4">
         <v>8</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="N25" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>10</v>
       </c>
@@ -2440,19 +2423,19 @@
         <v>26</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="H26" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I26" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="J26" s="4">
-        <v>1</v>
       </c>
       <c r="K26" s="4">
         <v>0</v>
@@ -2461,13 +2444,13 @@
         <v>8</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="N26" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>10</v>
       </c>
@@ -2481,19 +2464,19 @@
         <v>26</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="H27" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I27" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="J27" s="4">
-        <v>1</v>
       </c>
       <c r="K27" s="4">
         <v>0</v>
@@ -2502,13 +2485,13 @@
         <v>8</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="N27" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>10</v>
       </c>
@@ -2522,19 +2505,19 @@
         <v>26</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="H28" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I28" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="J28" s="4">
-        <v>1</v>
       </c>
       <c r="K28" s="4">
         <v>0</v>
@@ -2543,13 +2526,13 @@
         <v>8</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="N28" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>10</v>
       </c>
@@ -2563,19 +2546,19 @@
         <v>26</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="H29" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I29" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="J29" s="4">
-        <v>1</v>
       </c>
       <c r="K29" s="4">
         <v>0</v>
@@ -2584,13 +2567,13 @@
         <v>8</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="N29" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>10</v>
       </c>
@@ -2604,19 +2587,19 @@
         <v>26</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="H30" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I30" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="J30" s="4">
-        <v>1</v>
       </c>
       <c r="K30" s="4">
         <v>0</v>
@@ -2625,13 +2608,13 @@
         <v>8</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="N30" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>10</v>
       </c>
@@ -2645,19 +2628,19 @@
         <v>26</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="H31" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I31" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="J31" s="4">
-        <v>1</v>
       </c>
       <c r="K31" s="4">
         <v>0</v>
@@ -2666,13 +2649,13 @@
         <v>8</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="N31" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>10</v>
       </c>
@@ -2686,142 +2669,142 @@
         <v>26</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="H32" s="4" t="s">
+      <c r="H32" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="K32" s="4">
+        <v>1</v>
+      </c>
+      <c r="L32" s="4">
+        <v>8</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="N32" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="K33" s="4">
+        <v>1</v>
+      </c>
+      <c r="L33" s="4">
+        <v>8</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="N33" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="K34" s="4">
+        <v>1</v>
+      </c>
+      <c r="L34" s="4">
+        <v>8</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="N34" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I35" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="J32" s="4">
-        <v>1</v>
-      </c>
-      <c r="K32" s="4">
-        <v>0</v>
-      </c>
-      <c r="L32" s="4">
-        <v>8</v>
-      </c>
-      <c r="M32" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="N32" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J33" s="4">
-        <v>1</v>
-      </c>
-      <c r="K33" s="4">
-        <v>0</v>
-      </c>
-      <c r="L33" s="4">
-        <v>8</v>
-      </c>
-      <c r="M33" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="N33" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J34" s="4">
-        <v>1</v>
-      </c>
-      <c r="K34" s="4">
-        <v>0</v>
-      </c>
-      <c r="L34" s="4">
-        <v>8</v>
-      </c>
-      <c r="M34" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="N34" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J35" s="4">
-        <v>1</v>
       </c>
       <c r="K35" s="4">
         <v>0</v>
@@ -2830,13 +2813,13 @@
         <v>8</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="N35" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
         <v>10</v>
       </c>
@@ -2850,19 +2833,19 @@
         <v>26</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="H36" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J36" s="4">
-        <v>1</v>
+      <c r="H36" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="K36" s="4">
         <v>0</v>
@@ -2871,13 +2854,13 @@
         <v>8</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="N36" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
         <v>10</v>
       </c>
@@ -2891,19 +2874,19 @@
         <v>26</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="H37" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J37" s="4">
-        <v>1</v>
+      <c r="H37" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="K37" s="4">
         <v>0</v>
@@ -2912,13 +2895,13 @@
         <v>8</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="N37" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
         <v>10</v>
       </c>
@@ -2932,19 +2915,19 @@
         <v>26</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="H38" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J38" s="4">
-        <v>1</v>
+      <c r="H38" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="K38" s="4">
         <v>0</v>
@@ -2953,13 +2936,13 @@
         <v>8</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="N38" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
         <v>10</v>
       </c>
@@ -2973,19 +2956,19 @@
         <v>26</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="H39" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J39" s="4">
-        <v>1</v>
+      <c r="H39" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="K39" s="4">
         <v>0</v>
@@ -2994,81 +2977,82 @@
         <v>8</v>
       </c>
       <c r="M39" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="N39" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="K40" s="4">
+        <v>0</v>
+      </c>
+      <c r="L40" s="4">
+        <v>8</v>
+      </c>
+      <c r="M40" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="N40" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F41" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="N39" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="J40" s="4">
-        <v>0</v>
-      </c>
-      <c r="K40" s="4">
-        <v>1</v>
-      </c>
-      <c r="L40" s="4">
-        <v>8</v>
-      </c>
-      <c r="M40" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="N40" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>98</v>
-      </c>
       <c r="G41" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="H41" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="J41" s="4">
-        <v>0</v>
-      </c>
+      <c r="H41" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J41" s="4"/>
       <c r="K41" s="4">
         <v>1</v>
       </c>
@@ -3076,40 +3060,41 @@
         <v>8</v>
       </c>
       <c r="M41" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="N41" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F42" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="N41" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="G42" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="H42" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="J42" s="4">
-        <v>0</v>
-      </c>
+      <c r="H42" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J42" s="4"/>
       <c r="K42" s="4">
         <v>1</v>
       </c>
@@ -3117,13 +3102,13 @@
         <v>8</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="N42" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
         <v>10</v>
       </c>
@@ -3137,142 +3122,142 @@
         <v>26</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="H43" s="4" t="s">
+      <c r="H43" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="K43" s="4">
+        <v>1</v>
+      </c>
+      <c r="L43" s="4">
+        <v>8</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="N43" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A44" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="K44" s="4">
+        <v>1</v>
+      </c>
+      <c r="L44" s="4">
+        <v>8</v>
+      </c>
+      <c r="M44" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="N44" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I45" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J43" s="4">
+      <c r="K45" s="4">
         <v>1</v>
       </c>
-      <c r="K43" s="4">
-        <v>0</v>
-      </c>
-      <c r="L43" s="4">
-        <v>8</v>
-      </c>
-      <c r="M43" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="N43" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H44" s="4" t="s">
+      <c r="L45" s="4">
+        <v>8</v>
+      </c>
+      <c r="M45" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="N45" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A46" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I46" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="J44" s="4">
-        <v>1</v>
-      </c>
-      <c r="K44" s="4">
-        <v>0</v>
-      </c>
-      <c r="L44" s="4">
-        <v>8</v>
-      </c>
-      <c r="M44" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="N44" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J45" s="4">
-        <v>0</v>
-      </c>
-      <c r="K45" s="4">
-        <v>0</v>
-      </c>
-      <c r="L45" s="4">
-        <v>8</v>
-      </c>
-      <c r="M45" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="N45" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J46" s="4">
-        <v>0</v>
       </c>
       <c r="K46" s="4">
         <v>0</v>
@@ -3281,54 +3266,57 @@
         <v>8</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="N46" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H47" s="4" t="s">
+    <row r="47" spans="1:14" s="6" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A47" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="I47" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J47" s="4">
-        <v>0</v>
-      </c>
-      <c r="K47" s="4">
-        <v>0</v>
-      </c>
-      <c r="L47" s="4">
-        <v>8</v>
-      </c>
-      <c r="M47" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="N47" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="J47" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="K47" s="5">
+        <v>1</v>
+      </c>
+      <c r="L47" s="5">
+        <v>8</v>
+      </c>
+      <c r="M47" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="N47" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
         <v>10</v>
       </c>
@@ -3342,34 +3330,34 @@
         <v>26</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="H48" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J48" s="4">
-        <v>0</v>
+      <c r="H48" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="K48" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L48" s="4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M48" s="4" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="N48" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
         <v>10</v>
       </c>
@@ -3383,35 +3371,34 @@
         <v>26</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="H49" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4">
-        <v>0</v>
+      <c r="H49" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="K49" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L49" s="4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="N49" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
         <v>10</v>
       </c>
@@ -3425,76 +3412,78 @@
         <v>26</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="H50" s="4" t="s">
+      <c r="H50" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K50" s="4">
+        <v>2</v>
+      </c>
+      <c r="L50" s="4">
+        <v>3</v>
+      </c>
+      <c r="M50" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="N50" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A51" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I51" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4">
-        <v>0</v>
-      </c>
-      <c r="K50" s="4">
-        <v>1</v>
-      </c>
-      <c r="L50" s="4">
-        <v>8</v>
-      </c>
-      <c r="M50" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="N50" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E51" s="4" t="s">
+      <c r="J51" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="K51" s="4">
+        <v>2</v>
+      </c>
+      <c r="L51" s="4">
+        <v>8</v>
+      </c>
+      <c r="M51" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="F51" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="J51" s="4">
-        <v>0</v>
-      </c>
-      <c r="K51" s="4">
-        <v>1</v>
-      </c>
-      <c r="L51" s="4">
-        <v>8</v>
-      </c>
-      <c r="M51" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="N51" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
         <v>10</v>
       </c>
@@ -3505,42 +3494,45 @@
         <v>12</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E52" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="K52" s="4">
+        <v>2</v>
+      </c>
+      <c r="L52" s="4">
+        <v>8</v>
+      </c>
+      <c r="M52" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="F52" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="J52" s="4">
-        <v>0</v>
-      </c>
-      <c r="K52" s="4">
-        <v>1</v>
-      </c>
-      <c r="L52" s="4">
-        <v>8</v>
-      </c>
-      <c r="M52" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="N52" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>12</v>
@@ -3557,31 +3549,31 @@
       <c r="G53" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H53" s="4" t="s">
+      <c r="H53" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I53" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J53" s="4">
-        <v>0</v>
-      </c>
       <c r="K53" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L53" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="N53" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>12</v>
@@ -3590,39 +3582,39 @@
         <v>26</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H54" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J54" s="4">
-        <v>1</v>
+      <c r="H54" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="K54" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L54" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="N54" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>12</v>
@@ -3631,42 +3623,39 @@
         <v>26</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H55" s="4" t="s">
+      <c r="H55" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I55" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I55" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="J55" s="4">
-        <v>1</v>
-      </c>
       <c r="K55" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L55" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M55" s="4" t="s">
-        <v>113</v>
+        <v>58</v>
       </c>
       <c r="N55" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>12</v>
@@ -3675,42 +3664,39 @@
         <v>26</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H56" s="4" t="s">
+      <c r="H56" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I56" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I56" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="J56" s="4">
-        <v>0</v>
-      </c>
       <c r="K56" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L56" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M56" s="4" t="s">
-        <v>114</v>
+        <v>58</v>
       </c>
       <c r="N56" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>12</v>
@@ -3719,42 +3705,39 @@
         <v>26</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H57" s="4" t="s">
+      <c r="H57" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I57" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I57" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="J57" s="4">
-        <v>0</v>
-      </c>
       <c r="K57" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L57" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M57" s="4" t="s">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c r="N57" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A58" s="4" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>12</v>
@@ -3763,39 +3746,39 @@
         <v>26</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H58" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="J58" s="4">
-        <v>0</v>
+        <v>57</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="K58" s="4">
         <v>2</v>
       </c>
       <c r="L58" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M58" s="4" t="s">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="N58" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>12</v>
@@ -3804,39 +3787,39 @@
         <v>26</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H59" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="J59" s="4">
-        <v>0</v>
+        <v>57</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="K59" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L59" s="4">
         <v>6</v>
       </c>
       <c r="M59" s="4" t="s">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c r="N59" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A60" s="4" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>12</v>
@@ -3845,39 +3828,39 @@
         <v>26</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H60" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="J60" s="4">
-        <v>0</v>
+        <v>57</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="K60" s="4">
         <v>2</v>
       </c>
       <c r="L60" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M60" s="4" t="s">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="N60" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A61" s="4" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>12</v>
@@ -3886,39 +3869,39 @@
         <v>26</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H61" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="J61" s="4">
-        <v>0</v>
+        <v>57</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="K61" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L61" s="4">
         <v>6</v>
       </c>
       <c r="M61" s="4" t="s">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c r="N61" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A62" s="4" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>12</v>
@@ -3927,39 +3910,39 @@
         <v>26</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H62" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="J62" s="4">
-        <v>0</v>
+        <v>57</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="K62" s="4">
         <v>2</v>
       </c>
       <c r="L62" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M62" s="4" t="s">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="N62" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A63" s="4" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>12</v>
@@ -3968,866 +3951,1133 @@
         <v>26</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H63" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="J63" s="4">
-        <v>0</v>
+        <v>57</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="K63" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L63" s="4">
         <v>6</v>
       </c>
       <c r="M63" s="4" t="s">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c r="N63" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A64" s="4" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="H64" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="J64" s="4">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H64" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="K64" s="4">
         <v>2</v>
       </c>
       <c r="L64" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M64" s="4" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="N64" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="H65" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="J65" s="4">
-        <v>0</v>
-      </c>
-      <c r="K65" s="4">
-        <v>3</v>
-      </c>
-      <c r="L65" s="4">
-        <v>6</v>
-      </c>
-      <c r="M65" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="N65" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="G66" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="H66" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="J66" s="4">
-        <v>0</v>
-      </c>
-      <c r="K66" s="4">
-        <v>2</v>
-      </c>
-      <c r="L66" s="4">
-        <v>3</v>
-      </c>
-      <c r="M66" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="N66" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="G67" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="H67" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="J67" s="4">
-        <v>0</v>
-      </c>
-      <c r="K67" s="4">
-        <v>3</v>
-      </c>
-      <c r="L67" s="4">
-        <v>6</v>
-      </c>
-      <c r="M67" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="N67" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G68" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="H68" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I68" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="J68" s="4">
-        <v>0</v>
-      </c>
-      <c r="K68" s="4">
-        <v>2</v>
-      </c>
-      <c r="L68" s="4">
-        <v>8</v>
-      </c>
-      <c r="M68" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="N68" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G69" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="H69" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I69" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="J69" s="4">
-        <v>0</v>
-      </c>
-      <c r="K69" s="4">
-        <v>3</v>
-      </c>
-      <c r="L69" s="4">
-        <v>12</v>
-      </c>
-      <c r="M69" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="N69" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G70" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="H70" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I70" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="J70" s="4">
-        <v>0</v>
-      </c>
-      <c r="K70" s="4">
-        <v>2</v>
-      </c>
-      <c r="L70" s="4">
-        <v>8</v>
-      </c>
-      <c r="M70" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="N70" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G71" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="H71" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I71" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="J71" s="4">
-        <v>0</v>
-      </c>
-      <c r="K71" s="4">
-        <v>3</v>
-      </c>
-      <c r="L71" s="4">
-        <v>12</v>
-      </c>
-      <c r="M71" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="N71" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G72" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H72" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J72" s="4">
-        <v>0</v>
-      </c>
-      <c r="K72" s="4">
-        <v>2</v>
-      </c>
-      <c r="L72" s="4">
-        <v>6</v>
-      </c>
-      <c r="M72" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="N72" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G73" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H73" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J73" s="4">
-        <v>0</v>
-      </c>
-      <c r="K73" s="4">
-        <v>2</v>
-      </c>
-      <c r="L73" s="4">
-        <v>6</v>
-      </c>
-      <c r="M73" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="N73" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G74" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H74" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J74" s="4">
-        <v>0</v>
-      </c>
-      <c r="K74" s="4">
-        <v>2</v>
-      </c>
-      <c r="L74" s="4">
-        <v>6</v>
-      </c>
-      <c r="M74" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="N74" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G75" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H75" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J75" s="4">
-        <v>0</v>
-      </c>
-      <c r="K75" s="4">
-        <v>2</v>
-      </c>
-      <c r="L75" s="4">
-        <v>6</v>
-      </c>
-      <c r="M75" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="N75" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G76" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H76" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J76" s="4">
-        <v>0</v>
-      </c>
-      <c r="K76" s="4">
-        <v>2</v>
-      </c>
-      <c r="L76" s="4">
-        <v>6</v>
-      </c>
-      <c r="M76" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="N76" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G77" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H77" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J77" s="4">
-        <v>0</v>
-      </c>
-      <c r="K77" s="4">
-        <v>2</v>
-      </c>
-      <c r="L77" s="4">
-        <v>6</v>
-      </c>
-      <c r="M77" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="N77" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F78" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G78" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H78" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J78" s="4">
-        <v>0</v>
-      </c>
-      <c r="K78" s="4">
-        <v>2</v>
-      </c>
-      <c r="L78" s="4">
-        <v>6</v>
-      </c>
-      <c r="M78" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="N78" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F79" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G79" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H79" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J79" s="4">
-        <v>0</v>
-      </c>
-      <c r="K79" s="4">
-        <v>2</v>
-      </c>
-      <c r="L79" s="4">
-        <v>6</v>
-      </c>
-      <c r="M79" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="N79" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G80" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H80" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J80" s="4">
-        <v>0</v>
-      </c>
-      <c r="K80" s="4">
-        <v>2</v>
-      </c>
-      <c r="L80" s="4">
-        <v>6</v>
-      </c>
-      <c r="M80" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="N80" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F81" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G81" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H81" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J81" s="4">
-        <v>0</v>
-      </c>
-      <c r="K81" s="4">
-        <v>2</v>
-      </c>
-      <c r="L81" s="4">
-        <v>6</v>
-      </c>
-      <c r="M81" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="N81" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F82" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G82" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H82" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J82" s="4">
-        <v>0</v>
-      </c>
-      <c r="K82" s="4">
-        <v>2</v>
-      </c>
-      <c r="L82" s="4">
-        <v>6</v>
-      </c>
-      <c r="M82" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="N82" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A83" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F83" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H83" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J83" s="4">
-        <v>0</v>
-      </c>
-      <c r="K83" s="4">
-        <v>2</v>
-      </c>
-      <c r="L83" s="4">
-        <v>5</v>
-      </c>
-      <c r="M83" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="N83" s="4" t="s">
         <v>65</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N83" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="E. coli"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:M64" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0475168-F690-45DD-A939-D562E5B1ABFC}">
+  <dimension ref="A1:O23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+    <col min="8" max="8" width="22.2109375" customWidth="1"/>
+    <col min="9" max="9" width="17.78515625" customWidth="1"/>
+    <col min="10" max="10" width="30.92578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8">
+        <v>1</v>
+      </c>
+      <c r="L2" s="8">
+        <v>1</v>
+      </c>
+      <c r="M2" s="8">
+        <v>5</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" s="8">
+        <v>1</v>
+      </c>
+      <c r="L3" s="8">
+        <v>1</v>
+      </c>
+      <c r="M3" s="8">
+        <v>5</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4">
+        <v>1</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
+        <v>8</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4">
+        <v>1</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4">
+        <v>8</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4">
+        <v>1</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4">
+        <v>8</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4">
+        <v>1</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0</v>
+      </c>
+      <c r="M7" s="4">
+        <v>8</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4">
+        <v>1</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0</v>
+      </c>
+      <c r="M8" s="4">
+        <v>8</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4">
+        <v>1</v>
+      </c>
+      <c r="L9" s="4">
+        <v>0</v>
+      </c>
+      <c r="M9" s="4">
+        <v>8</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4">
+        <v>1</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0</v>
+      </c>
+      <c r="M10" s="4">
+        <v>8</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4">
+        <v>1</v>
+      </c>
+      <c r="L11" s="4">
+        <v>0</v>
+      </c>
+      <c r="M11" s="4">
+        <v>8</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4">
+        <v>1</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0</v>
+      </c>
+      <c r="M12" s="4">
+        <v>8</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4">
+        <v>1</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0</v>
+      </c>
+      <c r="M13" s="4">
+        <v>8</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4">
+        <v>1</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4">
+        <v>8</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4">
+        <v>1</v>
+      </c>
+      <c r="L15" s="4">
+        <v>0</v>
+      </c>
+      <c r="M15" s="4">
+        <v>8</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4">
+        <v>1</v>
+      </c>
+      <c r="L16" s="4">
+        <v>0</v>
+      </c>
+      <c r="M16" s="4">
+        <v>8</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4">
+        <v>1</v>
+      </c>
+      <c r="L17" s="4">
+        <v>0</v>
+      </c>
+      <c r="M17" s="4">
+        <v>8</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4">
+        <v>1</v>
+      </c>
+      <c r="L18" s="4">
+        <v>0</v>
+      </c>
+      <c r="M18" s="4">
+        <v>8</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4">
+        <v>1</v>
+      </c>
+      <c r="L19" s="4">
+        <v>0</v>
+      </c>
+      <c r="M19" s="4">
+        <v>8</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4">
+        <v>1</v>
+      </c>
+      <c r="L20" s="4">
+        <v>0</v>
+      </c>
+      <c r="M20" s="4">
+        <v>8</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4">
+        <v>1</v>
+      </c>
+      <c r="L21" s="4">
+        <v>0</v>
+      </c>
+      <c r="M21" s="4">
+        <v>8</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4">
+        <v>1</v>
+      </c>
+      <c r="L22" s="4">
+        <v>0</v>
+      </c>
+      <c r="M22" s="4">
+        <v>8</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="K23" s="8">
+        <v>1</v>
+      </c>
+      <c r="L23" s="8">
+        <v>1</v>
+      </c>
+      <c r="M23" s="8">
+        <v>3</v>
+      </c>
+      <c r="N23" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="O23" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>